--- a/Connexxion data - 2024-2025.xlsx
+++ b/Connexxion data - 2024-2025.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/175d33217359976b/Documenten/Toegepaste wiskunde/Project/Project-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive\Documenten\Toegepaste wiskunde\Project\Verbetering_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_8AA2670CF2338C2A65A7E20D0AD3F4B48DA6616B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD944898-74F6-4240-A141-6C0A11B157B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217FC983-BF7B-426E-A7DC-306C6E4D8E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10523" yWindow="1152" windowWidth="11188" windowHeight="9349" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dienstregeling" sheetId="3" r:id="rId1"/>
-    <sheet name="Afstandsmatrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Afstandsmatrix" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dienstregeling!$A$1:$D$306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dienstregeling!$A$1:$D$328</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="294">
   <si>
     <t>min reistijd in min</t>
   </si>
@@ -1246,9 +1247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:P328"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1257,7 +1260,7 @@
     <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1270,440 +1273,445 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23">
-        <v>401</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,13 +1719,13 @@
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,13 +1733,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,13 +1747,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,13 +1761,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,13 +1775,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,13 +1789,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,13 +1803,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,13 +1817,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,13 +1831,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,13 +1845,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,13 +1859,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,13 +1873,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1879,13 +1887,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,13 +1901,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,13 +1915,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,13 +1929,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
       </c>
       <c r="D48">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,13 +1943,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,13 +1957,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,13 +1971,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,13 +1985,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,13 +1999,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,13 +2013,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,13 +2027,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,13 +2041,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,13 +2055,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2075,13 +2083,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
       <c r="D59">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,13 +2097,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,13 +2111,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,13 +2125,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,13 +2139,13 @@
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
       <c r="D63">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,13 +2153,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,13 +2167,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,13 +2181,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,13 +2195,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
       </c>
       <c r="D67">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,13 +2209,13 @@
         <v>3</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,13 +2223,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="D69">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,13 +2237,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,13 +2251,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="D71">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,13 +2265,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2271,13 +2279,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="D73">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,13 +2293,13 @@
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2299,13 +2307,13 @@
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
       <c r="D76">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,13 +2335,13 @@
         <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -2355,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -2369,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -2383,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2397,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -2411,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -2425,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -2439,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -2453,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -2467,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -2481,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -2495,13 +2503,13 @@
         <v>3</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
       </c>
       <c r="D89">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,13 +2517,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
       <c r="D90">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2523,13 +2531,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
       </c>
       <c r="D91">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2537,13 +2545,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
       </c>
       <c r="D92">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,13 +2559,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,13 +2573,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2579,13 +2587,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,13 +2601,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
       </c>
       <c r="D96">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,13 +2615,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
       <c r="D97">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,13 +2629,13 @@
         <v>3</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
       </c>
       <c r="D98">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,13 +2643,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
       </c>
       <c r="D99">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,13 +2657,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
       </c>
       <c r="D100">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,13 +2671,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
       </c>
       <c r="D101">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,13 +2685,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
       </c>
       <c r="D102">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,13 +2699,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
       </c>
       <c r="D103">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2705,13 +2713,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
       </c>
       <c r="D104">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,13 +2727,13 @@
         <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
       </c>
       <c r="D105">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,13 +2741,13 @@
         <v>3</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
       </c>
       <c r="D106">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,13 +2755,13 @@
         <v>3</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
       </c>
       <c r="D107">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,13 +2769,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
       </c>
       <c r="D108">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,13 +2783,13 @@
         <v>3</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
       </c>
       <c r="D109">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,13 +2797,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
       </c>
       <c r="D110">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,13 +2811,13 @@
         <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
       </c>
       <c r="D111">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,13 +2825,13 @@
         <v>3</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
       </c>
       <c r="D112">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,13 +2839,13 @@
         <v>3</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
       </c>
       <c r="D113">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,13 +2853,13 @@
         <v>3</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
       </c>
       <c r="D114">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,13 +2867,13 @@
         <v>3</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
       </c>
       <c r="D115">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
       </c>
       <c r="D116">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2887,13 +2895,13 @@
         <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
       </c>
       <c r="D117">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,13 +2909,13 @@
         <v>3</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
       </c>
       <c r="D118">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,13 +2923,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
       </c>
       <c r="D119">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,13 +2937,13 @@
         <v>3</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
       </c>
       <c r="D120">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2943,13 +2951,13 @@
         <v>3</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
       </c>
       <c r="D121">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,13 +2965,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
       </c>
       <c r="D122">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,13 +2979,13 @@
         <v>3</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
       </c>
       <c r="D123">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,13 +2993,13 @@
         <v>3</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
       </c>
       <c r="D124">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2999,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
       </c>
       <c r="D125">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,13 +3021,13 @@
         <v>3</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
       </c>
       <c r="D126">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3027,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
       </c>
       <c r="D127">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,13 +3049,13 @@
         <v>3</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
       </c>
       <c r="D128">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,13 +3063,13 @@
         <v>3</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
       </c>
       <c r="D129">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,13 +3077,13 @@
         <v>3</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
       </c>
       <c r="D130">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,13 +3091,13 @@
         <v>3</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
       </c>
       <c r="D131">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,13 +3105,13 @@
         <v>3</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
       </c>
       <c r="D132">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,13 +3119,13 @@
         <v>3</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
       </c>
       <c r="D133">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3125,13 +3133,13 @@
         <v>3</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
       </c>
       <c r="D134">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,13 +3147,13 @@
         <v>3</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
       </c>
       <c r="D135">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3153,13 +3161,13 @@
         <v>3</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
       </c>
       <c r="D136">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3167,13 +3175,13 @@
         <v>3</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
       </c>
       <c r="D137">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3181,13 +3189,13 @@
         <v>3</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
       </c>
       <c r="D138">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3195,13 +3203,13 @@
         <v>3</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
       </c>
       <c r="D139">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,13 +3217,13 @@
         <v>3</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
       </c>
       <c r="D140">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3223,13 +3231,13 @@
         <v>3</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
       </c>
       <c r="D141">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,13 +3245,13 @@
         <v>3</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
       </c>
       <c r="D142">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,13 +3259,13 @@
         <v>3</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
       </c>
       <c r="D143">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,13 +3273,13 @@
         <v>3</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
       </c>
       <c r="D144">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,13 +3287,13 @@
         <v>3</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
       </c>
       <c r="D145">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3293,13 +3301,13 @@
         <v>3</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
       </c>
       <c r="D146">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,13 +3315,13 @@
         <v>3</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
       </c>
       <c r="D147">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3321,13 +3329,13 @@
         <v>3</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
       </c>
       <c r="D148">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3335,13 +3343,13 @@
         <v>3</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
       </c>
       <c r="D149">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3349,13 +3357,13 @@
         <v>3</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
       </c>
       <c r="D150">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
       </c>
       <c r="D151">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,13 +3385,13 @@
         <v>3</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
       </c>
       <c r="D152">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,13 +3399,13 @@
         <v>3</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
       </c>
       <c r="D153">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,13 +3413,13 @@
         <v>3</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
       </c>
       <c r="D154">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,13 +3427,13 @@
         <v>3</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
       </c>
       <c r="D155">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3433,13 +3441,13 @@
         <v>3</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
       </c>
       <c r="D156">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,13 +3455,13 @@
         <v>3</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
       </c>
       <c r="D157">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,13 +3469,13 @@
         <v>3</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
       </c>
       <c r="D158">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,13 +3483,13 @@
         <v>3</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
       </c>
       <c r="D159">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,13 +3497,13 @@
         <v>3</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
       </c>
       <c r="D160">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3503,13 +3511,13 @@
         <v>3</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
       </c>
       <c r="D161">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,13 +3525,13 @@
         <v>3</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
       </c>
       <c r="D162">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3531,13 +3539,13 @@
         <v>3</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
       </c>
       <c r="D163">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,13 +3553,13 @@
         <v>3</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
       </c>
       <c r="D164">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3559,13 +3567,13 @@
         <v>4</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C165" t="s">
         <v>3</v>
       </c>
       <c r="D165">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,13 +3581,13 @@
         <v>4</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C166" t="s">
         <v>3</v>
       </c>
       <c r="D166">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3587,13 +3595,13 @@
         <v>4</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C167" t="s">
         <v>3</v>
       </c>
       <c r="D167">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3601,13 +3609,13 @@
         <v>4</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
         <v>3</v>
       </c>
       <c r="D168">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,13 +3623,13 @@
         <v>4</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C169" t="s">
         <v>3</v>
       </c>
       <c r="D169">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,13 +3637,13 @@
         <v>4</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C170" t="s">
         <v>3</v>
       </c>
       <c r="D170">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,13 +3651,13 @@
         <v>4</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
         <v>3</v>
       </c>
       <c r="D171">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3657,13 +3665,13 @@
         <v>4</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C172" t="s">
         <v>3</v>
       </c>
       <c r="D172">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,13 +3679,13 @@
         <v>4</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C173" t="s">
         <v>3</v>
       </c>
       <c r="D173">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,13 +3693,13 @@
         <v>4</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
         <v>3</v>
       </c>
       <c r="D174">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,13 +3707,13 @@
         <v>4</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C175" t="s">
         <v>3</v>
       </c>
       <c r="D175">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3713,13 +3721,13 @@
         <v>4</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C176" t="s">
         <v>3</v>
       </c>
       <c r="D176">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,13 +3735,13 @@
         <v>4</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="C177" t="s">
         <v>3</v>
       </c>
       <c r="D177">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,13 +3749,13 @@
         <v>4</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C178" t="s">
         <v>3</v>
       </c>
       <c r="D178">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,13 +3763,13 @@
         <v>4</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="C179" t="s">
         <v>3</v>
       </c>
       <c r="D179">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,13 +3777,13 @@
         <v>4</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="C180" t="s">
         <v>3</v>
       </c>
       <c r="D180">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,13 +3791,13 @@
         <v>4</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
         <v>3</v>
       </c>
       <c r="D181">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,13 +3805,13 @@
         <v>4</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="C182" t="s">
         <v>3</v>
       </c>
       <c r="D182">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,13 +3819,13 @@
         <v>4</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
       </c>
       <c r="D183">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3825,13 +3833,13 @@
         <v>4</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="C184" t="s">
         <v>3</v>
       </c>
       <c r="D184">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,13 +3847,13 @@
         <v>4</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s">
         <v>3</v>
       </c>
       <c r="D185">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,13 +3861,13 @@
         <v>4</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="C186" t="s">
         <v>3</v>
       </c>
       <c r="D186">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,13 +3875,13 @@
         <v>4</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
       </c>
       <c r="D187">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3881,13 +3889,13 @@
         <v>4</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="C188" t="s">
         <v>3</v>
       </c>
       <c r="D188">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,13 +3903,13 @@
         <v>4</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C189" t="s">
         <v>3</v>
       </c>
       <c r="D189">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3909,13 +3917,13 @@
         <v>4</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="C190" t="s">
         <v>3</v>
       </c>
       <c r="D190">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,13 +3931,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="C191" t="s">
         <v>3</v>
       </c>
       <c r="D191">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3937,13 +3945,13 @@
         <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="C192" t="s">
         <v>3</v>
       </c>
       <c r="D192">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="C193" t="s">
         <v>3</v>
       </c>
       <c r="D193">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,13 +3973,13 @@
         <v>4</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C194" t="s">
         <v>3</v>
       </c>
       <c r="D194">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,13 +3987,13 @@
         <v>4</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="C195" t="s">
         <v>3</v>
       </c>
       <c r="D195">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3993,13 +4001,13 @@
         <v>4</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="C196" t="s">
         <v>3</v>
       </c>
       <c r="D196">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,13 +4015,13 @@
         <v>4</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="C197" t="s">
         <v>3</v>
       </c>
       <c r="D197">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,13 +4029,13 @@
         <v>4</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C198" t="s">
         <v>3</v>
       </c>
       <c r="D198">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,13 +4043,13 @@
         <v>4</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C199" t="s">
         <v>3</v>
       </c>
       <c r="D199">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,13 +4057,13 @@
         <v>4</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
         <v>3</v>
       </c>
       <c r="D200">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,13 +4071,13 @@
         <v>4</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="C201" t="s">
         <v>3</v>
       </c>
       <c r="D201">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4077,13 +4085,13 @@
         <v>4</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="C202" t="s">
         <v>3</v>
       </c>
       <c r="D202">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,13 +4099,13 @@
         <v>4</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="C203" t="s">
         <v>3</v>
       </c>
       <c r="D203">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,13 +4113,13 @@
         <v>4</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="C204" t="s">
         <v>3</v>
       </c>
       <c r="D204">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,13 +4127,13 @@
         <v>4</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="C205" t="s">
         <v>3</v>
       </c>
       <c r="D205">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,13 +4141,13 @@
         <v>4</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C206" t="s">
         <v>3</v>
       </c>
       <c r="D206">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,13 +4155,13 @@
         <v>4</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C207" t="s">
         <v>3</v>
       </c>
       <c r="D207">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,13 +4169,13 @@
         <v>4</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="C208" t="s">
         <v>3</v>
       </c>
       <c r="D208">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4175,13 +4183,13 @@
         <v>4</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="C209" t="s">
         <v>3</v>
       </c>
       <c r="D209">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,13 +4197,13 @@
         <v>4</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="C210" t="s">
         <v>3</v>
       </c>
       <c r="D210">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,13 +4211,13 @@
         <v>4</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="C211" t="s">
         <v>3</v>
       </c>
       <c r="D211">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,13 +4225,13 @@
         <v>4</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="C212" t="s">
         <v>3</v>
       </c>
       <c r="D212">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,13 +4239,13 @@
         <v>4</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="C213" t="s">
         <v>3</v>
       </c>
       <c r="D213">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,13 +4253,13 @@
         <v>4</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
       </c>
       <c r="D214">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,13 +4267,13 @@
         <v>4</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C215" t="s">
         <v>3</v>
       </c>
       <c r="D215">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,13 +4281,13 @@
         <v>4</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="C216" t="s">
         <v>3</v>
       </c>
       <c r="D216">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,13 +4295,13 @@
         <v>4</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C217" t="s">
         <v>3</v>
       </c>
       <c r="D217">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,13 +4309,13 @@
         <v>4</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C218" t="s">
         <v>3</v>
       </c>
       <c r="D218">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,13 +4323,13 @@
         <v>4</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C219" t="s">
         <v>3</v>
       </c>
       <c r="D219">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,13 +4337,13 @@
         <v>4</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="C220" t="s">
         <v>3</v>
       </c>
       <c r="D220">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4343,13 +4351,13 @@
         <v>4</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="C221" t="s">
         <v>3</v>
       </c>
       <c r="D221">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,13 +4365,13 @@
         <v>4</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="C222" t="s">
         <v>3</v>
       </c>
       <c r="D222">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,13 +4379,13 @@
         <v>4</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="C223" t="s">
         <v>3</v>
       </c>
       <c r="D223">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C224" t="s">
         <v>3</v>
       </c>
       <c r="D224">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,13 +4407,13 @@
         <v>4</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="C225" t="s">
         <v>3</v>
       </c>
       <c r="D225">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,13 +4421,13 @@
         <v>4</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="C226" t="s">
         <v>3</v>
       </c>
       <c r="D226">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,13 +4435,13 @@
         <v>4</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="C227" t="s">
         <v>3</v>
       </c>
       <c r="D227">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4441,13 +4449,13 @@
         <v>4</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="C228" t="s">
         <v>3</v>
       </c>
       <c r="D228">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,13 +4463,13 @@
         <v>4</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="C229" t="s">
         <v>3</v>
       </c>
       <c r="D229">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,13 +4477,13 @@
         <v>4</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="C230" t="s">
         <v>3</v>
       </c>
       <c r="D230">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,13 +4491,13 @@
         <v>4</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="C231" t="s">
         <v>3</v>
       </c>
       <c r="D231">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4497,13 +4505,13 @@
         <v>4</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C232" t="s">
         <v>3</v>
       </c>
       <c r="D232">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,13 +4519,13 @@
         <v>4</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="C233" t="s">
         <v>3</v>
       </c>
       <c r="D233">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,13 +4533,13 @@
         <v>4</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="C234" t="s">
         <v>3</v>
       </c>
       <c r="D234">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,13 +4547,13 @@
         <v>4</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="C235" t="s">
         <v>3</v>
       </c>
       <c r="D235">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4553,13 +4561,13 @@
         <v>4</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="C236" t="s">
         <v>3</v>
       </c>
       <c r="D236">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4567,13 +4575,13 @@
         <v>4</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C237" t="s">
         <v>3</v>
       </c>
       <c r="D237">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4581,13 +4589,13 @@
         <v>4</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="C238" t="s">
         <v>3</v>
       </c>
       <c r="D238">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,13 +4603,13 @@
         <v>4</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="C239" t="s">
         <v>3</v>
       </c>
       <c r="D239">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,7 +4617,7 @@
         <v>4</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="C240" t="s">
         <v>3</v>
@@ -4623,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="C241" t="s">
         <v>3</v>
@@ -4637,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="C242" t="s">
         <v>3</v>
@@ -4651,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="C243" t="s">
         <v>3</v>
@@ -4665,7 +4673,7 @@
         <v>4</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="C244" t="s">
         <v>3</v>
@@ -4679,7 +4687,7 @@
         <v>4</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>240</v>
+        <v>62</v>
       </c>
       <c r="C245" t="s">
         <v>3</v>
@@ -4693,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="C246" t="s">
         <v>3</v>
@@ -4707,7 +4715,7 @@
         <v>4</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="C247" t="s">
         <v>3</v>
@@ -4721,7 +4729,7 @@
         <v>4</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="C248" t="s">
         <v>3</v>
@@ -4735,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="C249" t="s">
         <v>3</v>
@@ -4749,7 +4757,7 @@
         <v>4</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="C250" t="s">
         <v>3</v>
@@ -4763,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="C251" t="s">
         <v>3</v>
@@ -4777,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="C252" t="s">
         <v>3</v>
@@ -4791,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="C253" t="s">
         <v>3</v>
@@ -4805,13 +4813,13 @@
         <v>4</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="C254" t="s">
         <v>3</v>
       </c>
       <c r="D254">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,13 +4827,13 @@
         <v>4</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="C255" t="s">
         <v>3</v>
       </c>
       <c r="D255">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4833,13 +4841,13 @@
         <v>4</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C256" t="s">
         <v>3</v>
       </c>
       <c r="D256">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,13 +4855,13 @@
         <v>4</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="C257" t="s">
         <v>3</v>
       </c>
       <c r="D257">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,13 +4869,13 @@
         <v>4</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="C258" t="s">
         <v>3</v>
       </c>
       <c r="D258">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,13 +4883,13 @@
         <v>4</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C259" t="s">
         <v>3</v>
       </c>
       <c r="D259">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4889,13 +4897,13 @@
         <v>4</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="C260" t="s">
         <v>3</v>
       </c>
       <c r="D260">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4903,13 +4911,13 @@
         <v>4</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="C261" t="s">
         <v>3</v>
       </c>
       <c r="D261">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4917,13 +4925,13 @@
         <v>4</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C262" t="s">
         <v>3</v>
       </c>
       <c r="D262">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,13 +4939,13 @@
         <v>4</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="C263" t="s">
         <v>3</v>
       </c>
       <c r="D263">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,13 +4953,13 @@
         <v>4</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="C264" t="s">
         <v>3</v>
       </c>
       <c r="D264">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,13 +4967,13 @@
         <v>4</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C265" t="s">
         <v>3</v>
       </c>
       <c r="D265">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4973,13 +4981,13 @@
         <v>4</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="C266" t="s">
         <v>3</v>
       </c>
       <c r="D266">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4987,13 +4995,13 @@
         <v>4</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="C267" t="s">
         <v>3</v>
       </c>
       <c r="D267">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,13 +5009,13 @@
         <v>4</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="C268" t="s">
         <v>3</v>
       </c>
       <c r="D268">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,13 +5023,13 @@
         <v>4</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="C269" t="s">
         <v>3</v>
       </c>
       <c r="D269">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,13 +5037,13 @@
         <v>4</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="C270" t="s">
         <v>3</v>
       </c>
       <c r="D270">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,13 +5051,13 @@
         <v>4</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="C271" t="s">
         <v>3</v>
       </c>
       <c r="D271">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,13 +5065,13 @@
         <v>4</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="C272" t="s">
         <v>3</v>
       </c>
       <c r="D272">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,13 +5079,13 @@
         <v>4</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="C273" t="s">
         <v>3</v>
       </c>
       <c r="D273">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,13 +5093,13 @@
         <v>4</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="C274" t="s">
         <v>3</v>
       </c>
       <c r="D274">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,13 +5107,13 @@
         <v>4</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C275" t="s">
         <v>3</v>
       </c>
       <c r="D275">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5113,13 +5121,13 @@
         <v>4</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="C276" t="s">
         <v>3</v>
       </c>
       <c r="D276">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,13 +5135,13 @@
         <v>4</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="C277" t="s">
         <v>3</v>
       </c>
       <c r="D277">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,13 +5149,13 @@
         <v>4</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="C278" t="s">
         <v>3</v>
       </c>
       <c r="D278">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,13 +5163,13 @@
         <v>4</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="C279" t="s">
         <v>3</v>
       </c>
       <c r="D279">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,13 +5177,13 @@
         <v>4</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="C280" t="s">
         <v>3</v>
       </c>
       <c r="D280">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,13 +5191,13 @@
         <v>4</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="C281" t="s">
         <v>3</v>
       </c>
       <c r="D281">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,13 +5205,13 @@
         <v>4</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="C282" t="s">
         <v>3</v>
       </c>
       <c r="D282">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,13 +5219,13 @@
         <v>4</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="C283" t="s">
         <v>3</v>
       </c>
       <c r="D283">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,13 +5233,13 @@
         <v>4</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="C284" t="s">
         <v>3</v>
       </c>
       <c r="D284">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,13 +5247,13 @@
         <v>4</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="C285" t="s">
         <v>3</v>
       </c>
       <c r="D285">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,13 +5261,13 @@
         <v>4</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="C286" t="s">
         <v>3</v>
       </c>
       <c r="D286">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,13 +5275,13 @@
         <v>4</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="C287" t="s">
         <v>3</v>
       </c>
       <c r="D287">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,13 +5289,13 @@
         <v>4</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="C288" t="s">
         <v>3</v>
       </c>
       <c r="D288">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,13 +5303,13 @@
         <v>4</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="C289" t="s">
         <v>3</v>
       </c>
       <c r="D289">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,13 +5317,13 @@
         <v>4</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="C290" t="s">
         <v>3</v>
       </c>
       <c r="D290">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,13 +5331,13 @@
         <v>4</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="C291" t="s">
         <v>3</v>
       </c>
       <c r="D291">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,13 +5345,13 @@
         <v>4</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="C292" t="s">
         <v>3</v>
       </c>
       <c r="D292">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,13 +5359,13 @@
         <v>4</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="C293" t="s">
         <v>3</v>
       </c>
       <c r="D293">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,13 +5373,13 @@
         <v>4</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="C294" t="s">
         <v>3</v>
       </c>
       <c r="D294">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,13 +5387,13 @@
         <v>4</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="C295" t="s">
         <v>3</v>
       </c>
       <c r="D295">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,13 +5401,13 @@
         <v>4</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="C296" t="s">
         <v>3</v>
       </c>
       <c r="D296">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,13 +5415,13 @@
         <v>4</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="C297" t="s">
         <v>3</v>
       </c>
       <c r="D297">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,13 +5429,13 @@
         <v>4</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="C298" t="s">
         <v>3</v>
       </c>
       <c r="D298">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,13 +5443,13 @@
         <v>4</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="C299" t="s">
         <v>3</v>
       </c>
       <c r="D299">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5449,13 +5457,13 @@
         <v>4</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="C300" t="s">
         <v>3</v>
       </c>
       <c r="D300">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,13 +5471,13 @@
         <v>4</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="C301" t="s">
         <v>3</v>
       </c>
       <c r="D301">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,13 +5485,13 @@
         <v>4</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="C302" t="s">
         <v>3</v>
       </c>
       <c r="D302">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,13 +5499,13 @@
         <v>4</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="C303" t="s">
         <v>3</v>
       </c>
       <c r="D303">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,13 +5513,13 @@
         <v>4</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="C304" t="s">
         <v>3</v>
       </c>
       <c r="D304">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,13 +5527,13 @@
         <v>4</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="C305" t="s">
         <v>3</v>
       </c>
       <c r="D305">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,13 +5541,13 @@
         <v>4</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="C306" t="s">
         <v>3</v>
       </c>
       <c r="D306">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,13 +5555,13 @@
         <v>4</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="C307" t="s">
         <v>3</v>
       </c>
       <c r="D307">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,13 +5569,13 @@
         <v>4</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="C308" t="s">
         <v>3</v>
       </c>
       <c r="D308">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5575,13 +5583,13 @@
         <v>4</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="C309" t="s">
         <v>3</v>
       </c>
       <c r="D309">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,13 +5597,13 @@
         <v>4</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="C310" t="s">
         <v>3</v>
       </c>
       <c r="D310">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,13 +5611,13 @@
         <v>4</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="C311" t="s">
         <v>3</v>
       </c>
       <c r="D311">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5617,13 +5625,13 @@
         <v>4</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="C312" t="s">
         <v>3</v>
       </c>
       <c r="D312">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,13 +5639,13 @@
         <v>4</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="C313" t="s">
         <v>3</v>
       </c>
       <c r="D313">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,13 +5653,13 @@
         <v>4</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="C314" t="s">
         <v>3</v>
       </c>
       <c r="D314">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,13 +5667,13 @@
         <v>4</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C315" t="s">
         <v>3</v>
       </c>
       <c r="D315">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5673,13 +5681,13 @@
         <v>4</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C316" t="s">
         <v>3</v>
       </c>
       <c r="D316">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5687,13 +5695,13 @@
         <v>4</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="C317" t="s">
         <v>3</v>
       </c>
       <c r="D317">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,13 +5709,13 @@
         <v>4</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="C318" t="s">
         <v>3</v>
       </c>
       <c r="D318">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,13 +5723,13 @@
         <v>4</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C319" t="s">
         <v>3</v>
       </c>
       <c r="D319">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,13 +5737,13 @@
         <v>4</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C320" t="s">
         <v>3</v>
       </c>
       <c r="D320">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,13 +5751,13 @@
         <v>4</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="C321" t="s">
         <v>3</v>
       </c>
       <c r="D321">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,13 +5765,13 @@
         <v>4</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C322" t="s">
         <v>3</v>
       </c>
       <c r="D322">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5771,13 +5779,13 @@
         <v>4</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="C323" t="s">
         <v>3</v>
       </c>
       <c r="D323">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,13 +5793,13 @@
         <v>4</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C324" t="s">
         <v>3</v>
       </c>
       <c r="D324">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,13 +5807,13 @@
         <v>4</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="C325" t="s">
         <v>3</v>
       </c>
       <c r="D325">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5813,13 +5821,13 @@
         <v>4</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C326" t="s">
         <v>3</v>
       </c>
       <c r="D326">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,13 +5835,13 @@
         <v>4</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="C327" t="s">
         <v>3</v>
       </c>
       <c r="D327">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,27 +5849,4639 @@
         <v>4</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C328" t="s">
         <v>3</v>
       </c>
       <c r="D328">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D328" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D328">
+      <sortCondition ref="A1:A328"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C14CA75-5891-41FC-BD02-C4F60C83D163}">
+  <dimension ref="A1:D328"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D328"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C191" t="s">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3</v>
+      </c>
+      <c r="D209">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C211" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C228" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3</v>
+      </c>
+      <c r="D236">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3</v>
+      </c>
+      <c r="D239">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3</v>
+      </c>
+      <c r="D245">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+      <c r="D247">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C253" t="s">
+        <v>3</v>
+      </c>
+      <c r="D253">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C254" t="s">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C258" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C259" t="s">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C260" t="s">
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C263" t="s">
+        <v>3</v>
+      </c>
+      <c r="D263">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C264" t="s">
+        <v>3</v>
+      </c>
+      <c r="D264">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3</v>
+      </c>
+      <c r="D265">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3</v>
+      </c>
+      <c r="D266">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3</v>
+      </c>
+      <c r="D267">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C268" t="s">
+        <v>3</v>
+      </c>
+      <c r="D268">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" t="s">
+        <v>3</v>
+      </c>
+      <c r="D269">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C270" t="s">
+        <v>3</v>
+      </c>
+      <c r="D270">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C271" t="s">
+        <v>3</v>
+      </c>
+      <c r="D271">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C272" t="s">
+        <v>3</v>
+      </c>
+      <c r="D272">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C273" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C274" t="s">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C277" t="s">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C278" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C279" t="s">
+        <v>3</v>
+      </c>
+      <c r="D279">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C281" t="s">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3</v>
+      </c>
+      <c r="D283">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C285" t="s">
+        <v>3</v>
+      </c>
+      <c r="D285">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C286" t="s">
+        <v>3</v>
+      </c>
+      <c r="D286">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C289" t="s">
+        <v>3</v>
+      </c>
+      <c r="D289">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C290" t="s">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C293" t="s">
+        <v>3</v>
+      </c>
+      <c r="D293">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C294" t="s">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3</v>
+      </c>
+      <c r="D295">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C296" t="s">
+        <v>3</v>
+      </c>
+      <c r="D296">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C297" t="s">
+        <v>3</v>
+      </c>
+      <c r="D297">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C298" t="s">
+        <v>3</v>
+      </c>
+      <c r="D298">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C300" t="s">
+        <v>3</v>
+      </c>
+      <c r="D300">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3</v>
+      </c>
+      <c r="D301">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C302" t="s">
+        <v>3</v>
+      </c>
+      <c r="D302">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3</v>
+      </c>
+      <c r="D303">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C306" t="s">
+        <v>3</v>
+      </c>
+      <c r="D306">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C307" t="s">
+        <v>3</v>
+      </c>
+      <c r="D307">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C308" t="s">
+        <v>3</v>
+      </c>
+      <c r="D308">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C309" t="s">
+        <v>3</v>
+      </c>
+      <c r="D309">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C310" t="s">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C311" t="s">
+        <v>3</v>
+      </c>
+      <c r="D311">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C312" t="s">
+        <v>3</v>
+      </c>
+      <c r="D312">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C313" t="s">
+        <v>3</v>
+      </c>
+      <c r="D313">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C314" t="s">
+        <v>3</v>
+      </c>
+      <c r="D314">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C315" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C316" t="s">
+        <v>3</v>
+      </c>
+      <c r="D316">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C317" t="s">
+        <v>3</v>
+      </c>
+      <c r="D317">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C318" t="s">
+        <v>3</v>
+      </c>
+      <c r="D318">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C319" t="s">
+        <v>3</v>
+      </c>
+      <c r="D319">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3</v>
+      </c>
+      <c r="D320">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C321" t="s">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C322" t="s">
+        <v>3</v>
+      </c>
+      <c r="D322">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C323" t="s">
+        <v>3</v>
+      </c>
+      <c r="D323">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C324" t="s">
+        <v>3</v>
+      </c>
+      <c r="D324">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C325" t="s">
+        <v>3</v>
+      </c>
+      <c r="D325">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C326" t="s">
+        <v>3</v>
+      </c>
+      <c r="D326">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C327" t="s">
+        <v>3</v>
+      </c>
+      <c r="D327">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C328" t="s">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6082,12 +10702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6096,7 +10710,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013B620F01982514694878B55267266B0" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="b766b0002d27b841048f4e26ce56a6ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xmlns:ns3="c6fe3531-949f-4c96-ac1d-b793c48e3f25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19b1c955cd3d6da461c7724026070e4b" ns2:_="" ns3:_="">
     <xsd:import namespace="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
@@ -6311,24 +10925,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D6FDD2-FF62-4B13-9A34-5A609285E718}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c4c90c3b-e0bd-4787-87d0-fc55f607185c"/>
-    <ds:schemaRef ds:uri="dbd7ad12-3323-416c-89da-709eb039707f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93F530E-264F-4AD7-B88E-4B975E2E9C18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6336,7 +10939,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{516E1ACF-4E23-476B-BB69-1CA2D691FFA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6353,4 +10956,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D6FDD2-FF62-4B13-9A34-5A609285E718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c4c90c3b-e0bd-4787-87d0-fc55f607185c"/>
+    <ds:schemaRef ds:uri="dbd7ad12-3323-416c-89da-709eb039707f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>